--- a/New files/Sturdy Memorial Hospital/10203328 - Sturdy Memorial Hospital - A - OR  PACU  ENDO.xlsx
+++ b/New files/Sturdy Memorial Hospital/10203328 - Sturdy Memorial Hospital - A - OR  PACU  ENDO.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B068275D-3AB4-4DAA-9F06-8F852132A659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAE2338D-A0E7-4B6A-8C4E-C60D386A2C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{435802A4-9005-4FC5-8802-1F80B1DC5BF4}"/>
+    <workbookView xWindow="-28920" yWindow="1740" windowWidth="29040" windowHeight="15840" xr2:uid="{7A256DB8-85AC-4C6D-830D-DD41614E668B}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -614,20 +614,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>134620</xdr:rowOff>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
+      <xdr:colOff>93345</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3EAFBC4-75D4-D182-9539-47DE44CEC92A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AFC0AF5-EF48-949D-85BB-7A01DA91D0B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -978,7 +978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C141850-AF95-4BCA-BE68-CA25C00401A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63353710-FD40-4C07-B6B1-4B4DCA838FDA}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -994,9 +994,9 @@
     <col min="4" max="4" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1376,7 +1376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BD4B0C-B3A9-44F9-9210-4736D50A8B00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E66992-B2F8-4031-AD26-030E60465BED}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1386,7 +1386,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
@@ -1394,17 +1394,17 @@
     <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.77734375" customWidth="1"/>
     <col min="17" max="17" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">

--- a/New files/Sturdy Memorial Hospital/10203328 - Sturdy Memorial Hospital - A - OR  PACU  ENDO.xlsx
+++ b/New files/Sturdy Memorial Hospital/10203328 - Sturdy Memorial Hospital - A - OR  PACU  ENDO.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAE2338D-A0E7-4B6A-8C4E-C60D386A2C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0188F0CB-F917-4D9E-91CF-E3E00D3B50F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1740" windowWidth="29040" windowHeight="15840" xr2:uid="{7A256DB8-85AC-4C6D-830D-DD41614E668B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{8F362EAC-77A8-445B-87E8-62891E374DD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -614,20 +614,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:rowOff>134620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>93345</xdr:colOff>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AFC0AF5-EF48-949D-85BB-7A01DA91D0B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2196743D-E988-F122-B5A5-0B896E88AC18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -978,7 +978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63353710-FD40-4C07-B6B1-4B4DCA838FDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A398E9-048F-4E57-816F-7AD81A89826F}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -994,9 +994,9 @@
     <col min="4" max="4" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1370,13 +1370,13 @@
     <mergeCell ref="I23:J23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="94" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup scale="92" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E66992-B2F8-4031-AD26-030E60465BED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA551988-0776-4E4C-B5C8-5571EF5D6D44}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1386,7 +1386,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
@@ -1394,7 +1394,7 @@
     <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
@@ -1404,7 +1404,7 @@
     <col min="16" max="16" width="9.77734375" customWidth="1"/>
     <col min="17" max="17" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -2132,6 +2132,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="45" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="44" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/New files/Sturdy Memorial Hospital/10203328 - Sturdy Memorial Hospital - A - OR  PACU  ENDO.xlsx
+++ b/New files/Sturdy Memorial Hospital/10203328 - Sturdy Memorial Hospital - A - OR  PACU  ENDO.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0188F0CB-F917-4D9E-91CF-E3E00D3B50F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{113393D2-8FE7-44FE-8516-E039E6E7C38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{8F362EAC-77A8-445B-87E8-62891E374DD8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3FAF0A9B-7A99-455E-8D77-4166E95C566A}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="63">
   <si>
     <t>Bill to</t>
   </si>
@@ -145,6 +145,9 @@
     <t>Caregiver</t>
   </si>
   <si>
+    <t>Profession</t>
+  </si>
+  <si>
     <t>Specialty</t>
   </si>
   <si>
@@ -188,6 +191,9 @@
   </si>
   <si>
     <t>Farrell, Temisha</t>
+  </si>
+  <si>
+    <t>RN</t>
   </si>
   <si>
     <t>Operating Room</t>
@@ -614,20 +620,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>134620</xdr:rowOff>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>339090</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2196743D-E988-F122-B5A5-0B896E88AC18}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD90C518-7373-072E-700B-46BAFA496AD2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -978,7 +984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A398E9-048F-4E57-816F-7AD81A89826F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B702A0C-B4C9-478D-A1E9-ED1467A9C2A3}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -989,14 +995,14 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" customWidth="1"/>
     <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1370,44 +1376,45 @@
     <mergeCell ref="I23:J23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="92" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA551988-0776-4E4C-B5C8-5571EF5D6D44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E63319-67F7-4B1F-BB6A-74C69918D6AA}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.77734375" customWidth="1"/>
-    <col min="17" max="17" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.77734375" customWidth="1"/>
+    <col min="18" max="18" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>33</v>
       </c>
@@ -1445,10 +1452,10 @@
         <v>43</v>
       </c>
       <c r="M1" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="35" t="s">
         <v>20</v>
-      </c>
-      <c r="N1" s="35" t="s">
-        <v>44</v>
       </c>
       <c r="O1" s="35" t="s">
         <v>45</v>
@@ -1465,8 +1472,11 @@
       <c r="S1" s="35" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T1" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>16</v>
       </c>
@@ -1477,51 +1487,54 @@
         <v>25</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="37">
+        <v>53</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="37">
         <v>45440</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>53</v>
-      </c>
       <c r="I2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="39">
+      <c r="K2" s="39">
         <v>10</v>
       </c>
-      <c r="K2" s="39">
-        <v>0</v>
-      </c>
       <c r="L2" s="39">
         <v>0</v>
       </c>
-      <c r="M2" s="38">
+      <c r="M2" s="39">
+        <v>0</v>
+      </c>
+      <c r="N2" s="38">
         <v>10</v>
       </c>
-      <c r="N2" s="36">
+      <c r="O2" s="36">
         <v>100</v>
       </c>
-      <c r="O2" s="36">
+      <c r="P2" s="36">
         <v>1000</v>
       </c>
-      <c r="P2" s="12">
+      <c r="Q2" s="12">
         <v>10203328</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="R2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="39"/>
-      <c r="S2" s="36"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S2" s="39"/>
+      <c r="T2" s="36"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>16</v>
       </c>
@@ -1532,51 +1545,54 @@
         <v>25</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="37">
+        <v>53</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="37">
         <v>45441</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>54</v>
-      </c>
       <c r="I3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="39">
+      <c r="K3" s="39">
         <v>12</v>
       </c>
-      <c r="K3" s="39">
-        <v>0</v>
-      </c>
       <c r="L3" s="39">
         <v>0</v>
       </c>
-      <c r="M3" s="38">
+      <c r="M3" s="39">
+        <v>0</v>
+      </c>
+      <c r="N3" s="38">
         <v>12</v>
       </c>
-      <c r="N3" s="36">
+      <c r="O3" s="36">
         <v>100</v>
       </c>
-      <c r="O3" s="36">
+      <c r="P3" s="36">
         <v>1200</v>
       </c>
-      <c r="P3" s="12">
+      <c r="Q3" s="12">
         <v>10203328</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="R3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="39"/>
-      <c r="S3" s="36"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S3" s="39"/>
+      <c r="T3" s="36"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>16</v>
       </c>
@@ -1587,51 +1603,54 @@
         <v>25</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="37">
+        <v>53</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="37">
         <v>45442</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>53</v>
-      </c>
       <c r="I4" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="39">
+      <c r="K4" s="39">
         <v>10</v>
       </c>
-      <c r="K4" s="39">
-        <v>0</v>
-      </c>
       <c r="L4" s="39">
         <v>0</v>
       </c>
-      <c r="M4" s="38">
+      <c r="M4" s="39">
+        <v>0</v>
+      </c>
+      <c r="N4" s="38">
         <v>10</v>
       </c>
-      <c r="N4" s="36">
+      <c r="O4" s="36">
         <v>100</v>
       </c>
-      <c r="O4" s="36">
+      <c r="P4" s="36">
         <v>1000</v>
       </c>
-      <c r="P4" s="12">
+      <c r="Q4" s="12">
         <v>10203328</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="R4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="39"/>
-      <c r="S4" s="36"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S4" s="39"/>
+      <c r="T4" s="36"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>16</v>
       </c>
@@ -1642,51 +1661,54 @@
         <v>25</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="37">
+        <v>53</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="37">
         <v>45443</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>55</v>
-      </c>
       <c r="I5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="39">
+      <c r="K5" s="39">
         <v>8</v>
       </c>
-      <c r="K5" s="39">
-        <v>0</v>
-      </c>
       <c r="L5" s="39">
         <v>0</v>
       </c>
-      <c r="M5" s="38">
+      <c r="M5" s="39">
+        <v>0</v>
+      </c>
+      <c r="N5" s="38">
         <v>8</v>
       </c>
-      <c r="N5" s="36">
+      <c r="O5" s="36">
         <v>100</v>
       </c>
-      <c r="O5" s="36">
+      <c r="P5" s="36">
         <v>800</v>
       </c>
-      <c r="P5" s="12">
+      <c r="Q5" s="12">
         <v>10203328</v>
       </c>
-      <c r="Q5" s="12" t="s">
+      <c r="R5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="R5" s="39"/>
-      <c r="S5" s="36"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S5" s="39"/>
+      <c r="T5" s="36"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>16</v>
       </c>
@@ -1697,51 +1719,54 @@
         <v>25</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="37">
+        <v>53</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="37">
         <v>45443</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>56</v>
-      </c>
       <c r="I6" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="39">
+      <c r="K6" s="39">
         <v>2</v>
       </c>
-      <c r="K6" s="39">
-        <v>0</v>
-      </c>
       <c r="L6" s="39">
         <v>0</v>
       </c>
-      <c r="M6" s="38">
+      <c r="M6" s="39">
+        <v>0</v>
+      </c>
+      <c r="N6" s="38">
         <v>2</v>
       </c>
-      <c r="N6" s="36">
+      <c r="O6" s="36">
         <v>100</v>
       </c>
-      <c r="O6" s="36">
+      <c r="P6" s="36">
         <v>200</v>
       </c>
-      <c r="P6" s="12">
+      <c r="Q6" s="12">
         <v>10203328</v>
       </c>
-      <c r="Q6" s="12" t="s">
+      <c r="R6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="R6" s="39"/>
-      <c r="S6" s="36"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S6" s="39"/>
+      <c r="T6" s="36"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>16</v>
       </c>
@@ -1752,51 +1777,54 @@
         <v>25</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="37">
+        <v>53</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="37">
         <v>45443</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>57</v>
-      </c>
       <c r="I7" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="39">
+      <c r="K7" s="39">
         <v>8</v>
       </c>
-      <c r="K7" s="39">
-        <v>0</v>
-      </c>
       <c r="L7" s="39">
         <v>0</v>
       </c>
-      <c r="M7" s="38">
+      <c r="M7" s="39">
+        <v>0</v>
+      </c>
+      <c r="N7" s="38">
         <v>8</v>
       </c>
-      <c r="N7" s="36">
+      <c r="O7" s="36">
         <v>10</v>
       </c>
-      <c r="O7" s="36">
+      <c r="P7" s="36">
         <v>80</v>
       </c>
-      <c r="P7" s="12">
+      <c r="Q7" s="12">
         <v>10203328</v>
       </c>
-      <c r="Q7" s="12" t="s">
+      <c r="R7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="R7" s="39"/>
-      <c r="S7" s="36"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S7" s="39"/>
+      <c r="T7" s="36"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>16</v>
       </c>
@@ -1807,51 +1835,54 @@
         <v>25</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="37">
+        <v>53</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="37">
         <v>45446</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>53</v>
-      </c>
       <c r="I8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="39">
+      <c r="K8" s="39">
         <v>10</v>
       </c>
-      <c r="K8" s="39">
-        <v>0</v>
-      </c>
       <c r="L8" s="39">
         <v>0</v>
       </c>
-      <c r="M8" s="38">
+      <c r="M8" s="39">
+        <v>0</v>
+      </c>
+      <c r="N8" s="38">
         <v>10</v>
       </c>
-      <c r="N8" s="36">
+      <c r="O8" s="36">
         <v>100</v>
       </c>
-      <c r="O8" s="36">
+      <c r="P8" s="36">
         <v>1000</v>
       </c>
-      <c r="P8" s="12">
+      <c r="Q8" s="12">
         <v>10203328</v>
       </c>
-      <c r="Q8" s="12" t="s">
+      <c r="R8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="R8" s="39"/>
-      <c r="S8" s="36"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S8" s="39"/>
+      <c r="T8" s="36"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
@@ -1862,51 +1893,54 @@
         <v>25</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="37">
+        <v>53</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="37">
         <v>45448</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>53</v>
-      </c>
       <c r="I9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="39">
+      <c r="K9" s="39">
         <v>10</v>
       </c>
-      <c r="K9" s="39">
-        <v>0</v>
-      </c>
       <c r="L9" s="39">
         <v>0</v>
       </c>
-      <c r="M9" s="38">
+      <c r="M9" s="39">
+        <v>0</v>
+      </c>
+      <c r="N9" s="38">
         <v>10</v>
       </c>
-      <c r="N9" s="36">
+      <c r="O9" s="36">
         <v>100</v>
       </c>
-      <c r="O9" s="36">
+      <c r="P9" s="36">
         <v>1000</v>
       </c>
-      <c r="P9" s="12">
+      <c r="Q9" s="12">
         <v>10203328</v>
       </c>
-      <c r="Q9" s="12" t="s">
+      <c r="R9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="R9" s="39"/>
-      <c r="S9" s="36"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S9" s="39"/>
+      <c r="T9" s="36"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>16</v>
       </c>
@@ -1917,51 +1951,54 @@
         <v>25</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="37">
+        <v>53</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="37">
         <v>45448</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>57</v>
-      </c>
       <c r="I10" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="39">
+      <c r="K10" s="39">
         <v>8</v>
       </c>
-      <c r="K10" s="39">
-        <v>0</v>
-      </c>
       <c r="L10" s="39">
         <v>0</v>
       </c>
-      <c r="M10" s="38">
+      <c r="M10" s="39">
+        <v>0</v>
+      </c>
+      <c r="N10" s="38">
         <v>8</v>
       </c>
-      <c r="N10" s="36">
+      <c r="O10" s="36">
         <v>10</v>
       </c>
-      <c r="O10" s="36">
+      <c r="P10" s="36">
         <v>80</v>
       </c>
-      <c r="P10" s="12">
+      <c r="Q10" s="12">
         <v>10203328</v>
       </c>
-      <c r="Q10" s="12" t="s">
+      <c r="R10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="R10" s="39"/>
-      <c r="S10" s="36"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S10" s="39"/>
+      <c r="T10" s="36"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
@@ -1972,51 +2009,54 @@
         <v>25</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="37">
+        <v>53</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="37">
         <v>45449</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>58</v>
-      </c>
       <c r="I11" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="39">
+      <c r="K11" s="39">
         <v>10.25</v>
       </c>
-      <c r="K11" s="39">
-        <v>0</v>
-      </c>
       <c r="L11" s="39">
         <v>0</v>
       </c>
-      <c r="M11" s="38">
+      <c r="M11" s="39">
+        <v>0</v>
+      </c>
+      <c r="N11" s="38">
         <v>10.25</v>
       </c>
-      <c r="N11" s="36">
+      <c r="O11" s="36">
         <v>100</v>
       </c>
-      <c r="O11" s="36">
+      <c r="P11" s="36">
         <v>1025</v>
       </c>
-      <c r="P11" s="12">
+      <c r="Q11" s="12">
         <v>10203328</v>
       </c>
-      <c r="Q11" s="12" t="s">
+      <c r="R11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="39"/>
-      <c r="S11" s="36"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S11" s="39"/>
+      <c r="T11" s="36"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>16</v>
       </c>
@@ -2027,51 +2067,54 @@
         <v>25</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="37">
+        <v>53</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="37">
         <v>45450</v>
       </c>
-      <c r="H12" s="12" t="s">
-        <v>59</v>
-      </c>
       <c r="I12" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="39">
+      <c r="K12" s="39">
         <v>9.75</v>
       </c>
-      <c r="K12" s="39">
-        <v>0</v>
-      </c>
       <c r="L12" s="39">
         <v>0</v>
       </c>
-      <c r="M12" s="38">
+      <c r="M12" s="39">
+        <v>0</v>
+      </c>
+      <c r="N12" s="38">
         <v>9.75</v>
       </c>
-      <c r="N12" s="36">
+      <c r="O12" s="36">
         <v>100</v>
       </c>
-      <c r="O12" s="36">
+      <c r="P12" s="36">
         <v>975</v>
       </c>
-      <c r="P12" s="12">
+      <c r="Q12" s="12">
         <v>10203328</v>
       </c>
-      <c r="Q12" s="12" t="s">
+      <c r="R12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="R12" s="39"/>
-      <c r="S12" s="36"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S12" s="39"/>
+      <c r="T12" s="36"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
@@ -2082,56 +2125,59 @@
         <v>25</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="37">
+        <v>53</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="37">
         <v>45450</v>
       </c>
-      <c r="H13" s="12" t="s">
-        <v>60</v>
-      </c>
       <c r="I13" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="39">
+      <c r="K13" s="39">
         <v>0.25</v>
       </c>
-      <c r="K13" s="39">
-        <v>0</v>
-      </c>
       <c r="L13" s="39">
         <v>0</v>
       </c>
-      <c r="M13" s="38">
+      <c r="M13" s="39">
+        <v>0</v>
+      </c>
+      <c r="N13" s="38">
         <v>0.25</v>
       </c>
-      <c r="N13" s="36">
+      <c r="O13" s="36">
         <v>100</v>
       </c>
-      <c r="O13" s="36">
+      <c r="P13" s="36">
         <v>25</v>
       </c>
-      <c r="P13" s="12">
+      <c r="Q13" s="12">
         <v>10203328</v>
       </c>
-      <c r="Q13" s="12" t="s">
+      <c r="R13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="R13" s="39">
+      <c r="S13" s="39">
         <v>98.25</v>
       </c>
-      <c r="S13" s="36">
+      <c r="T13" s="36">
         <v>8385</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="44" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="42" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>